--- a/data/trans_orig/P14C35-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C35-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCDE2163-6DFF-4DB1-8352-D8E82BDC2965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA7326D-024C-41D3-AB54-16BEE59FC849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8384ADCF-10B6-45BC-8E9B-B73D332B861B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA2CD0F6-F8EB-4EAD-8DF3-6528F645D454}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>85,4%</t>
   </si>
   <si>
-    <t>33,72%</t>
+    <t>36,09%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -101,7 +101,7 @@
     <t>14,6%</t>
   </si>
   <si>
-    <t>66,28%</t>
+    <t>63,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,7 +140,7 @@
     <t>81,25%</t>
   </si>
   <si>
-    <t>25,96%</t>
+    <t>22,47%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -149,7 +149,7 @@
     <t>18,75%</t>
   </si>
   <si>
-    <t>74,04%</t>
+    <t>77,53%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -185,25 +185,25 @@
     <t>76,75%</t>
   </si>
   <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
   </si>
   <si>
     <t>13,58%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
   </si>
   <si>
     <t>9,67%</t>
   </si>
   <si>
-    <t>29,76%</t>
+    <t>31,32%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -227,28 +227,28 @@
     <t>81,37%</t>
   </si>
   <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -663,7 +663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502BE98A-9FA0-42B2-B5E5-018BCC440B0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8482F0-FB5C-4E3D-B003-A9BD21A6C643}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C35-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C35-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA7326D-024C-41D3-AB54-16BEE59FC849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B0104B5-B2A0-486B-B725-B29F6C02B202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA2CD0F6-F8EB-4EAD-8DF3-6528F645D454}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5DE008D3-0A2F-4437-A381-C88E3F6E9978}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="72">
-  <si>
-    <t>Población según el tiempo de diagnóstico del dolor menstrual en 2015 (Tasa respuesta: 0,93%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="71">
+  <si>
+    <t>Población según el tiempo de diagnóstico del dolor menstrual en 2016 (Tasa respuesta: 0,93%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,7 +77,7 @@
     <t>85,4%</t>
   </si>
   <si>
-    <t>36,09%</t>
+    <t>50,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -101,9 +101,6 @@
     <t>14,6%</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
@@ -122,13 +119,13 @@
     <t>84,78%</t>
   </si>
   <si>
-    <t>37,87%</t>
+    <t>40,88%</t>
   </si>
   <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>62,13%</t>
+    <t>59,12%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -140,7 +137,7 @@
     <t>81,25%</t>
   </si>
   <si>
-    <t>22,47%</t>
+    <t>30,72%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -149,7 +146,7 @@
     <t>18,75%</t>
   </si>
   <si>
-    <t>77,53%</t>
+    <t>69,28%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -185,25 +182,25 @@
     <t>76,75%</t>
   </si>
   <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>13,58%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
   </si>
   <si>
     <t>9,67%</t>
   </si>
   <si>
-    <t>31,32%</t>
+    <t>30,83%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -212,7 +209,7 @@
     <t>87,81%</t>
   </si>
   <si>
-    <t>50,2%</t>
+    <t>50,59%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -221,25 +218,25 @@
     <t>12,19%</t>
   </si>
   <si>
-    <t>49,8%</t>
+    <t>49,41%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>9,11%</t>
@@ -248,7 +245,7 @@
     <t>3,05%</t>
   </si>
   <si>
-    <t>18,56%</t>
+    <t>19,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -663,7 +660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8482F0-FB5C-4E3D-B003-A9BD21A6C643}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EFB0D8-CA04-441F-AAB9-E630AC941D77}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -904,7 +901,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -919,7 +916,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -947,13 +944,13 @@
         <v>6319</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -962,18 +959,18 @@
         <v>6319</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1001,10 +998,10 @@
         <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -1016,10 +1013,10 @@
         <v>14</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1053,7 +1050,7 @@
         <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1068,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1102,7 +1099,7 @@
         <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1117,7 +1114,7 @@
         <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1145,13 +1142,13 @@
         <v>1989</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1160,18 +1157,18 @@
         <v>1989</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1196,10 +1193,10 @@
         <v>5445</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>14</v>
@@ -1211,10 +1208,10 @@
         <v>5445</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>14</v>
@@ -1245,13 +1242,13 @@
         <v>978</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1260,13 +1257,13 @@
         <v>978</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,7 +1297,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1315,7 +1312,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1343,13 +1340,13 @@
         <v>6423</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -1358,18 +1355,18 @@
         <v>6423</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1394,10 +1391,10 @@
         <v>3817</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -1409,10 +1406,10 @@
         <v>3817</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -1449,7 +1446,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1464,7 +1461,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,13 +1489,13 @@
         <v>881</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1507,13 +1504,13 @@
         <v>881</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1541,13 +1538,13 @@
         <v>4698</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -1556,18 +1553,18 @@
         <v>4698</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1592,10 +1589,10 @@
         <v>2933</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>14</v>
@@ -1607,10 +1604,10 @@
         <v>2933</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>14</v>
@@ -1641,13 +1638,13 @@
         <v>941</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -1656,13 +1653,13 @@
         <v>941</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1696,7 +1693,7 @@
         <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1711,7 +1708,7 @@
         <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,13 +1736,13 @@
         <v>3874</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -1754,18 +1751,18 @@
         <v>3874</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1793,10 +1790,10 @@
         <v>14</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -1808,10 +1805,10 @@
         <v>14</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,7 +1842,7 @@
         <v>17</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -1860,7 +1857,7 @@
         <v>17</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,7 +1891,7 @@
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -1909,7 +1906,7 @@
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,13 +1934,13 @@
         <v>921</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -1952,18 +1949,18 @@
         <v>921</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -1988,13 +1985,13 @@
         <v>21675</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -2003,13 +2000,13 @@
         <v>21675</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,13 +2034,13 @@
         <v>3837</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2052,13 +2049,13 @@
         <v>3837</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,13 +2083,13 @@
         <v>2731</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2101,13 +2098,13 @@
         <v>2731</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2132,13 @@
         <v>28242</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M31" s="7">
         <v>28</v>
@@ -2150,18 +2147,18 @@
         <v>28242</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2186,10 +2183,10 @@
         <v>7031</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>14</v>
@@ -2201,10 +2198,10 @@
         <v>7031</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>14</v>
@@ -2241,7 +2238,7 @@
         <v>17</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -2256,7 +2253,7 @@
         <v>17</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2281,13 @@
         <v>976</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -2299,13 +2296,13 @@
         <v>976</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,13 +2330,13 @@
         <v>8007</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -2348,13 +2345,13 @@
         <v>8007</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2381,13 @@
         <v>49207</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M36" s="7">
         <v>50</v>
@@ -2399,13 +2396,13 @@
         <v>49207</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2430,13 @@
         <v>5755</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M37" s="7">
         <v>6</v>
@@ -2448,13 +2445,13 @@
         <v>5755</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2479,13 @@
         <v>5510</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -2497,13 +2494,13 @@
         <v>5510</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,13 +2528,13 @@
         <v>60473</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M39" s="7">
         <v>61</v>
@@ -2546,18 +2543,18 @@
         <v>60473</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
